--- a/Resources/MLS_2017_Attendance.xlsx
+++ b/Resources/MLS_2017_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmagill4\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01AB5412-64EA-4E62-96D9-202658401376}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36DF29B-9D3A-4FF0-A1FD-111149DEC6C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5844" xr2:uid="{2673CE0A-A0BB-43FD-8B51-159212E9D328}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3810" xr2:uid="{2673CE0A-A0BB-43FD-8B51-159212E9D328}"/>
   </bookViews>
   <sheets>
     <sheet name="MLS" sheetId="2" r:id="rId1"/>
@@ -2923,6 +2923,27 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
@@ -2949,27 +2970,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3050,21 +3050,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E05D4E6-E49B-493B-B64F-1BE9C0A087AC}" name="Table_0" displayName="Table_0" ref="A1:M23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:M23" xr:uid="{8B56FA45-B328-4708-853A-43A3F24D92B7}"/>
   <tableColumns count="13">
-    <tableColumn id="5" xr3:uid="{BE4D40A7-35AD-4A18-AE48-837E88514067}" uniqueName="5" name="Rank" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{2974376D-ACD8-4315-A811-929C1DF1C34E}" uniqueName="2" name="Team" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FA14512D-9CDB-4E4B-BE5C-1E6428A0E2A5}" uniqueName="3" name="Matches" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{4D5ABD87-5C92-4F55-9A16-7599AB6A84EE}" uniqueName="4" name="Total" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{0F3F8860-DBCA-4BA6-80AA-A90C56D4089A}" uniqueName="6" name="Average" queryTableFieldId="5" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{BE4D40A7-35AD-4A18-AE48-837E88514067}" uniqueName="5" name="Rank" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2974376D-ACD8-4315-A811-929C1DF1C34E}" uniqueName="2" name="Team" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{FA14512D-9CDB-4E4B-BE5C-1E6428A0E2A5}" uniqueName="3" name="Matches" queryTableFieldId="3" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{4D5ABD87-5C92-4F55-9A16-7599AB6A84EE}" uniqueName="4" name="Total" queryTableFieldId="4" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{0F3F8860-DBCA-4BA6-80AA-A90C56D4089A}" uniqueName="6" name="Average" queryTableFieldId="5" dataDxfId="15">
       <calculatedColumnFormula>Table_0[[#This Row],[Total]]/Table_0[[#This Row],[Matches]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E6E8DF5-EAFC-4854-B95D-AE478B718527}" uniqueName="9" name="Capacity" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{35B51F4D-4D1D-4829-9D2B-F750CFC8CA4C}" uniqueName="7" name="Stadium" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{238858E3-BAD2-4765-8B70-37884B35A0B4}" uniqueName="8" name="City" queryTableFieldId="7" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{15C602BD-C9E2-45A2-9ECC-EA8A37CBFD85}" uniqueName="10" name="State" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{E76554B5-1CD0-45E0-94E2-BBBA46A33989}" uniqueName="11" name="Zip Code" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{6B86288B-54DE-42A7-B920-716850095F6C}" uniqueName="12" name="Density" queryTableFieldId="14" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{7EAE6785-D387-400A-BAD3-9E115509B06F}" uniqueName="1" name="City Population" queryTableFieldId="13" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{7C93E23D-C7CB-4E4B-A7C1-7499ABCB61B3}" uniqueName="13" name="Land Area" queryTableFieldId="15" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{0E6E8DF5-EAFC-4854-B95D-AE478B718527}" uniqueName="9" name="Capacity" queryTableFieldId="8" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{35B51F4D-4D1D-4829-9D2B-F750CFC8CA4C}" uniqueName="7" name="Stadium" queryTableFieldId="6" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{238858E3-BAD2-4765-8B70-37884B35A0B4}" uniqueName="8" name="City" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{15C602BD-C9E2-45A2-9ECC-EA8A37CBFD85}" uniqueName="10" name="State" queryTableFieldId="10" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{E76554B5-1CD0-45E0-94E2-BBBA46A33989}" uniqueName="11" name="Zip Code" queryTableFieldId="11" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{6B86288B-54DE-42A7-B920-716850095F6C}" uniqueName="12" name="Density" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{7EAE6785-D387-400A-BAD3-9E115509B06F}" uniqueName="1" name="City Population" queryTableFieldId="13" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{7C93E23D-C7CB-4E4B-A7C1-7499ABCB61B3}" uniqueName="13" name="Land Area" queryTableFieldId="15" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3074,12 +3074,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E71604B7-9337-4B60-847D-873FCDE32856}" name="Stadiums_edit" displayName="Stadiums_edit" ref="A1:F24" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F24" xr:uid="{10076D11-F34F-45F6-8098-39507AA4CE99}"/>
   <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{872E8F52-EEE7-4C84-B9AE-DB1B3A1A447C}" uniqueName="7" name="Stadium" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{654D3805-3C62-476A-81ED-365BCE18B0F4}" uniqueName="2" name="Club(s)" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{093449BC-E88E-4A86-AD4A-7A695F1C4ED9}" uniqueName="3" name="Location" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{51744972-252F-4922-BAA9-AE114A908115}" uniqueName="4" name="First MLS year in stadium" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{7D478627-6429-4D28-99C6-495539EFFB70}" uniqueName="5" name="Capacity" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{68A31B9B-9B91-45B6-9BD8-532E29FDF8A4}" uniqueName="6" name="Coordinates" queryTableFieldId="6" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{872E8F52-EEE7-4C84-B9AE-DB1B3A1A447C}" uniqueName="7" name="Stadium" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{654D3805-3C62-476A-81ED-365BCE18B0F4}" uniqueName="2" name="Club(s)" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{093449BC-E88E-4A86-AD4A-7A695F1C4ED9}" uniqueName="3" name="Location" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{51744972-252F-4922-BAA9-AE114A908115}" uniqueName="4" name="First MLS year in stadium" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7D478627-6429-4D28-99C6-495539EFFB70}" uniqueName="5" name="Capacity" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{68A31B9B-9B91-45B6-9BD8-532E29FDF8A4}" uniqueName="6" name="Coordinates" queryTableFieldId="6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3089,7 +3089,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DE1309A-F5CA-4ED8-9D61-660CA0AF829F}" name="Table_0__2" displayName="Table_0__2" ref="A1:D755" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D755" xr:uid="{0D17AF3D-5A5F-4EB0-B35F-EB6E82B0C4BB}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{969B1725-4987-49F3-AEEA-DEBE2ACFF553}" uniqueName="5" name="City" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{969B1725-4987-49F3-AEEA-DEBE2ACFF553}" uniqueName="5" name="City" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{770D10CA-BE44-4552-800E-42C928D99173}" uniqueName="2" name="Population Density (Persons/Square Mile)" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{50706462-C138-4105-A58D-4D22E5DF6E14}" uniqueName="3" name="2016 Population" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{DD4CFA62-0E81-4DF9-AF7E-32908E99D709}" uniqueName="4" name="Land Area (Square Miles)" queryTableFieldId="4"/>
@@ -3398,7 +3398,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3413,8 +3413,9 @@
     <col min="8" max="8" width="10.15625" customWidth="1"/>
     <col min="9" max="9" width="12.3671875" customWidth="1"/>
     <col min="10" max="10" width="9.05078125" customWidth="1"/>
-    <col min="11" max="12" width="8.83984375" style="2"/>
-    <col min="13" max="13" width="8.83984375" style="8"/>
+    <col min="11" max="11" width="9.05078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4235,13 +4236,13 @@
         <v>170</v>
       </c>
       <c r="K20" s="2">
-        <v>11692</v>
+        <v>7032</v>
       </c>
       <c r="L20" s="2">
-        <v>1567872</v>
+        <v>33972</v>
       </c>
       <c r="M20" s="2">
-        <v>134</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
